--- a/data/lcip/inspire.xlsx
+++ b/data/lcip/inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tazminchiles/Documents/GitHub/lcc-culture-dashboard/data/lcip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5AB97-7C2E-CD4D-BD95-EAF6B24D7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86267ED-BB79-454F-B0E2-74985FE6F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{406E41F0-82DD-4B86-892E-08D27500617C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16860" xr2:uid="{406E41F0-82DD-4B86-892E-08D27500617C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="200">
   <si>
     <t>THEME</t>
   </si>
@@ -167,16 +167,10 @@
     <t xml:space="preserve">Visual Art </t>
   </si>
   <si>
-    <t>TOTAL ARTFORM (APPLIED)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
     <t>ARTFORM (FUNDED)</t>
-  </si>
-  <si>
-    <t>TOTAL ARTFORM (FUNDED)</t>
   </si>
   <si>
     <t>Funding invested from Leeds City Council</t>
@@ -800,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,12 +807,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5C925-F55E-4714-9D4F-01C9B07F23DB}">
-  <dimension ref="A1:F343"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1655,23 +1643,25 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>43</v>
+      <c r="A35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1682,13 +1672,13 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1696,13 +1686,13 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1710,10 +1700,10 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1724,13 +1714,13 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1738,13 +1728,13 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1752,10 +1742,10 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1766,10 +1756,10 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -1780,10 +1770,10 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -1794,13 +1784,13 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1808,13 +1798,13 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1822,13 +1812,13 @@
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1836,27 +1826,27 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>11401</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1864,39 +1854,41 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1">
       <c r="A50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>201</v>
+      <c r="A51" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
-        <v>11401</v>
+        <v>390</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
         <v>48</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1904,27 +1896,25 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="1">
-        <v>390</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
-        <v>48</v>
+        <v>75720</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1932,61 +1922,59 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1147</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>75720</v>
+        <v>21710</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>53</v>
+      <c r="A57" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1147</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>53</v>
+      <c r="A58" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1">
-        <v>21710</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>57</v>
+      <c r="A59" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -1997,8 +1985,8 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>57</v>
+      <c r="A60" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -2009,20 +1997,22 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A61" s="11" t="s">
-        <v>57</v>
+      <c r="A61" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A62" s="11" t="s">
-        <v>57</v>
+      <c r="A62" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -2033,60 +2023,60 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A63" s="11" t="s">
-        <v>57</v>
+      <c r="A63" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A64" s="11" t="s">
-        <v>57</v>
+      <c r="A64" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A65" s="11" t="s">
-        <v>57</v>
+      <c r="A65" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A66" s="11" t="s">
-        <v>57</v>
+      <c r="A66" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A67" s="11" t="s">
-        <v>57</v>
+      <c r="A67" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
@@ -2099,8 +2089,8 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A68" s="11" t="s">
-        <v>57</v>
+      <c r="A68" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -2111,22 +2101,20 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A69" s="11" t="s">
-        <v>57</v>
+      <c r="A69" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A70" s="11" t="s">
-        <v>57</v>
+      <c r="A70" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -2137,8 +2125,8 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A71" s="11" t="s">
-        <v>57</v>
+      <c r="A71" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
@@ -2149,8 +2137,8 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A72" s="11" t="s">
-        <v>57</v>
+      <c r="A72" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
@@ -2161,8 +2149,8 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A73" s="11" t="s">
-        <v>57</v>
+      <c r="A73" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -2173,8 +2161,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A74" s="11" t="s">
-        <v>57</v>
+      <c r="A74" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -2185,8 +2173,8 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A75" s="11" t="s">
-        <v>57</v>
+      <c r="A75" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -2197,8 +2185,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A76" s="11" t="s">
-        <v>57</v>
+      <c r="A76" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -2209,20 +2197,22 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A77" s="11" t="s">
-        <v>57</v>
+      <c r="A77" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A78" s="11" t="s">
-        <v>57</v>
+      <c r="A78" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -2233,22 +2223,20 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A79" s="11" t="s">
-        <v>57</v>
+      <c r="A79" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A80" s="11" t="s">
-        <v>57</v>
+      <c r="A80" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -2259,8 +2247,8 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A81" s="11" t="s">
-        <v>57</v>
+      <c r="A81" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -2271,8 +2259,8 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A82" s="11" t="s">
-        <v>57</v>
+      <c r="A82" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -2283,60 +2271,60 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A83" s="11" t="s">
-        <v>57</v>
+      <c r="A83" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A84" s="11" t="s">
-        <v>57</v>
+      <c r="A84" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A85" s="11" t="s">
-        <v>57</v>
+      <c r="A85" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A86" s="11" t="s">
-        <v>57</v>
+      <c r="A86" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A87" s="11" t="s">
-        <v>57</v>
+      <c r="A87" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -2347,63 +2335,63 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A88" s="11" t="s">
-        <v>57</v>
+      <c r="A88" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A89" s="11" t="s">
-        <v>57</v>
+      <c r="A89" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A90" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
+      <c r="A90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A91" s="11" t="s">
-        <v>57</v>
+      <c r="A91" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2411,8 +2399,8 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A93" s="11" t="s">
-        <v>91</v>
+      <c r="A93" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>58</v>
@@ -2423,8 +2411,8 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A94" s="11" t="s">
-        <v>91</v>
+      <c r="A94" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>59</v>
@@ -2435,20 +2423,22 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A95" s="11" t="s">
-        <v>91</v>
+      <c r="A95" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A96" s="11" t="s">
-        <v>91</v>
+      <c r="A96" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>61</v>
@@ -2459,34 +2449,34 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A97" s="11" t="s">
-        <v>91</v>
+      <c r="A97" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A98" s="11" t="s">
-        <v>91</v>
+      <c r="A98" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A99" s="11" t="s">
-        <v>91</v>
+      <c r="A99" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>64</v>
@@ -2497,34 +2487,34 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A100" s="11" t="s">
-        <v>91</v>
+      <c r="A100" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
+      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A101" s="11" t="s">
-        <v>91</v>
+      <c r="A101" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A102" s="11" t="s">
-        <v>91</v>
+      <c r="A102" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>67</v>
@@ -2535,8 +2525,8 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A103" s="11" t="s">
-        <v>91</v>
+      <c r="A103" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>68</v>
@@ -2549,88 +2539,86 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A104" s="11" t="s">
-        <v>91</v>
+      <c r="A104" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A105" s="11" t="s">
-        <v>91</v>
+      <c r="A105" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A106" s="11" t="s">
-        <v>91</v>
+      <c r="A106" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A107" s="11" t="s">
-        <v>91</v>
+      <c r="A107" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A108" s="11" t="s">
-        <v>91</v>
+      <c r="A108" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C108" s="1">
-        <v>2</v>
-      </c>
+      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A109" s="11" t="s">
-        <v>91</v>
+      <c r="A109" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A110" s="11" t="s">
-        <v>91</v>
+      <c r="A110" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>75</v>
@@ -2641,60 +2629,60 @@
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A111" s="11" t="s">
-        <v>91</v>
+      <c r="A111" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A112" s="11" t="s">
-        <v>91</v>
+      <c r="A112" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A113" s="11" t="s">
-        <v>91</v>
+      <c r="A113" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A114" s="11" t="s">
-        <v>91</v>
+      <c r="A114" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A115" s="11" t="s">
-        <v>91</v>
+      <c r="A115" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>80</v>
@@ -2705,8 +2693,8 @@
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A116" s="11" t="s">
-        <v>91</v>
+      <c r="A116" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>81</v>
@@ -2717,46 +2705,48 @@
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A117" s="11" t="s">
-        <v>91</v>
+      <c r="A117" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A118" s="11" t="s">
-        <v>91</v>
+      <c r="A118" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A119" s="11" t="s">
-        <v>91</v>
+      <c r="A119" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A120" s="11" t="s">
-        <v>91</v>
+      <c r="A120" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>85</v>
@@ -2769,8 +2759,8 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A121" s="11" t="s">
-        <v>91</v>
+      <c r="A121" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>86</v>
@@ -2781,8 +2771,8 @@
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A122" s="11" t="s">
-        <v>91</v>
+      <c r="A122" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>87</v>
@@ -2795,27 +2785,27 @@
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A123" s="11" t="s">
-        <v>91</v>
+      <c r="A123" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A124" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="A124" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
+      <c r="B124" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -2824,11 +2814,11 @@
       <c r="A125" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
+      <c r="B125" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -2838,157 +2828,159 @@
       <c r="A126" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" s="1"/>
+      <c r="B126" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A127" s="13" t="s">
-        <v>93</v>
+      <c r="A127" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C127" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A128" s="13" t="s">
-        <v>93</v>
+      <c r="A128" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C128" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A129" s="13" t="s">
-        <v>93</v>
+      <c r="A129" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C129" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A130" s="13" t="s">
-        <v>93</v>
+      <c r="A130" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A131" s="13" t="s">
-        <v>93</v>
+      <c r="A131" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C131" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A132" s="13" t="s">
-        <v>93</v>
+      <c r="A132" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C132" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A133" s="13" t="s">
-        <v>93</v>
+      <c r="A133" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C133" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A134" s="13" t="s">
-        <v>93</v>
+      <c r="A134" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C134" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A135" s="13" t="s">
-        <v>93</v>
+      <c r="A135" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C135" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A136" s="13" t="s">
-        <v>93</v>
+      <c r="A136" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C136" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A137" s="13" t="s">
-        <v>93</v>
+      <c r="A137" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>104</v>
@@ -3001,92 +2993,92 @@
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A138" s="13" t="s">
-        <v>93</v>
+      <c r="A138" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A139" s="13" t="s">
-        <v>93</v>
+      <c r="A139" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C139" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A140" s="13" t="s">
-        <v>93</v>
+      <c r="A140" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C140" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="C141" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A142" s="13" t="s">
-        <v>109</v>
+      <c r="A142" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C142" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A143" s="13" t="s">
-        <v>109</v>
+      <c r="A143" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C143" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A144" s="13" t="s">
-        <v>109</v>
+      <c r="A144" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>96</v>
@@ -3099,50 +3091,50 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A145" s="13" t="s">
-        <v>109</v>
+      <c r="A145" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A146" s="13" t="s">
-        <v>109</v>
+      <c r="A146" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C146" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A147" s="13" t="s">
-        <v>109</v>
+      <c r="A147" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C147" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A148" s="13" t="s">
-        <v>109</v>
+      <c r="A148" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>100</v>
@@ -3155,78 +3147,78 @@
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A149" s="13" t="s">
-        <v>109</v>
+      <c r="A149" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C149" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A150" s="13" t="s">
-        <v>109</v>
+      <c r="A150" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C150" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A151" s="13" t="s">
-        <v>109</v>
+      <c r="A151" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C151" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A152" s="13" t="s">
-        <v>109</v>
+      <c r="A152" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C152" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A153" s="13" t="s">
-        <v>109</v>
+      <c r="A153" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C153" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A154" s="13" t="s">
-        <v>109</v>
+      <c r="A154" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>106</v>
@@ -3239,168 +3231,168 @@
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C155" s="5">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A156" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="B156" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="C156" s="5">
-        <v>2</v>
+        <v>746</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A157" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B157" s="14" t="s">
+      <c r="A157" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C157" s="5">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A158" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B158" s="14" t="s">
+      <c r="A158" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="5">
-        <v>746</v>
+        <v>380.5</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A159" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B159" s="14" t="s">
+      <c r="A159" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C159" s="5">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A160" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="14" t="s">
+      <c r="A160" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C160" s="5">
-        <v>380.5</v>
+        <v>136</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A161" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B161" s="14" t="s">
+      <c r="A161" s="11" t="s">
         <v>115</v>
       </c>
+      <c r="B161" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="C161" s="5">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="C162" s="5">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A163" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B163" s="14" t="s">
+      <c r="A163" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C163" s="5">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A164" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B164" s="14" t="s">
+      <c r="A164" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="5">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A165" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="14" t="s">
+      <c r="A165" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C165" s="5">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A166" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="14" t="s">
+      <c r="A166" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B166" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C166" s="5">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -3408,13 +3400,13 @@
     </row>
     <row r="167" spans="1:6" ht="14.5" customHeight="1">
       <c r="A167" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B167" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C167" s="5">
-        <v>39</v>
+      <c r="C167" s="15">
+        <v>11</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -3422,362 +3414,362 @@
     </row>
     <row r="168" spans="1:6" ht="14.5" customHeight="1">
       <c r="A168" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" s="5">
-        <v>55</v>
+        <v>118</v>
+      </c>
+      <c r="C168" s="15">
+        <v>16</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A169" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B169" s="16" t="s">
+      <c r="A169" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C169" s="17">
-        <v>11</v>
+      <c r="C169" s="15">
+        <v>24</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A170" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B170" s="16" t="s">
+      <c r="A170" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C170" s="17">
-        <v>16</v>
+      <c r="C170" s="15">
+        <v>14</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A171" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B171" s="16" t="s">
+      <c r="A171" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="17">
-        <v>24</v>
+      <c r="C171" s="15">
+        <v>9</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A172" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B172" s="16" t="s">
+      <c r="A172" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C172" s="17">
-        <v>14</v>
+      <c r="C172" s="15">
+        <v>8</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A173" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B173" s="16" t="s">
+      <c r="A173" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C173" s="17">
-        <v>9</v>
+      <c r="C173" s="15">
+        <v>13</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A174" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B174" s="16" t="s">
+      <c r="A174" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C174" s="17">
-        <v>8</v>
+      <c r="C174" s="15">
+        <v>1</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A175" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B175" s="16" t="s">
+      <c r="A175" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C175" s="17">
-        <v>13</v>
+      <c r="C175" s="15">
+        <v>0</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A176" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B176" s="16" t="s">
+      <c r="A176" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C176" s="17">
-        <v>1</v>
+      <c r="C176" s="15">
+        <v>2</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A177" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B177" s="16" t="s">
+      <c r="A177" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C177" s="17">
-        <v>0</v>
+      <c r="B177" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="15">
+        <v>6</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A178" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C178" s="17">
-        <v>2</v>
+      <c r="A178" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178" s="15">
+        <v>0</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A179" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B179" s="16" t="s">
+      <c r="A179" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B179" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C179" s="17">
-        <v>6</v>
+      <c r="C179" s="15">
+        <v>1</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A180" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B180" s="16" t="s">
+      <c r="A180" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B180" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C180" s="17">
-        <v>0</v>
+      <c r="C180" s="15">
+        <v>5</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A181" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B181" s="16" t="s">
+      <c r="A181" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C181" s="17">
-        <v>1</v>
+      <c r="C181" s="15">
+        <v>4</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A182" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B182" s="16" t="s">
+      <c r="A182" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C182" s="17">
-        <v>5</v>
+      <c r="C182" s="15">
+        <v>7</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A183" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="16" t="s">
+      <c r="A183" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C183" s="17">
-        <v>4</v>
+      <c r="C183" s="15">
+        <v>8</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A184" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B184" s="16" t="s">
+      <c r="A184" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C184" s="17">
-        <v>7</v>
+      <c r="C184" s="15">
+        <v>0</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A185" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C185" s="17">
-        <v>8</v>
+      <c r="A185" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C185" s="15">
+        <v>10</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A186" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C186" s="17">
-        <v>0</v>
+      <c r="A186" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" s="15">
+        <v>39</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A187" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C187" s="17">
-        <v>10</v>
+      <c r="A187" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C187" s="15">
+        <v>44</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A188" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C188" s="17">
-        <v>39</v>
+      <c r="A188" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188" s="15">
+        <v>52</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A189" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B189" s="16" t="s">
+      <c r="A189" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C189" s="17">
-        <v>44</v>
+      <c r="C189" s="15">
+        <v>4</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A190" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C190" s="17">
-        <v>52</v>
+      <c r="A190" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="15">
+        <v>0</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A191" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" s="17">
-        <v>4</v>
+      <c r="A191" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C191" s="15">
+        <v>0</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A192" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C192" s="17">
-        <v>0</v>
+      <c r="A192" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C192" s="15">
+        <v>8</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A193" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C193" s="17">
+      <c r="A193" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="15">
         <v>0</v>
       </c>
       <c r="D193" s="1"/>
@@ -3785,27 +3777,27 @@
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A194" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C194" s="17">
-        <v>8</v>
+      <c r="A194" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="15">
+        <v>0</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A195" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C195" s="17">
+      <c r="A195" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" s="15">
         <v>0</v>
       </c>
       <c r="D195" s="1"/>
@@ -3813,171 +3805,171 @@
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B196" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B196" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C196" s="17">
-        <v>0</v>
-      </c>
+      <c r="C196" s="15"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A197" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C197" s="17">
-        <v>0</v>
+      <c r="A197" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C197" s="15">
+        <v>64</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A198" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B198" s="16" t="s">
+      <c r="A198" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C198" s="17"/>
+      <c r="C198" s="15">
+        <v>3</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A199" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B199" s="16" t="s">
+      <c r="A199" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B199" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C199" s="17">
-        <v>64</v>
+      <c r="C199" s="15">
+        <v>3</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A200" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B200" s="16" t="s">
+      <c r="A200" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B200" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C200" s="17">
-        <v>3</v>
-      </c>
+      <c r="C200" s="15"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A201" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B201" s="16" t="s">
+      <c r="A201" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B201" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C201" s="17">
-        <v>3</v>
+      <c r="C201" s="15">
+        <v>7</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A202" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B202" s="16" t="s">
+      <c r="A202" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="17"/>
+      <c r="C202" s="15"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A203" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B203" s="16" t="s">
+      <c r="A203" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C203" s="17">
-        <v>7</v>
-      </c>
+      <c r="C203" s="15"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A204" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B204" s="16" t="s">
+      <c r="A204" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B204" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C204" s="17"/>
+      <c r="C204" s="15">
+        <v>8</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A205" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B205" s="16" t="s">
+      <c r="A205" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C205" s="17"/>
+      <c r="C205" s="15"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A206" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B206" s="16" t="s">
+      <c r="A206" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C206" s="17">
-        <v>8</v>
+      <c r="C206" s="15">
+        <v>1</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A207" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B207" s="16" t="s">
+      <c r="A207" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B207" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C207" s="17"/>
+      <c r="C207" s="15">
+        <v>1</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A208" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B208" s="16" t="s">
+      <c r="A208" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B208" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="15">
         <v>1</v>
       </c>
       <c r="D208" s="1"/>
@@ -3985,341 +3977,341 @@
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A209" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B209" s="16" t="s">
+      <c r="A209" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B209" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C209" s="17">
-        <v>1</v>
-      </c>
+      <c r="C209" s="15"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A210" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B210" s="16" t="s">
+      <c r="A210" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B210" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C210" s="17">
-        <v>1</v>
-      </c>
+      <c r="C210" s="15"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A211" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B211" s="16" t="s">
+      <c r="A211" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B211" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C211" s="17"/>
+      <c r="C211" s="15"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A212" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B212" s="16" t="s">
+      <c r="A212" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B212" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C212" s="17"/>
+      <c r="C212" s="15">
+        <v>1</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A213" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B213" s="16" t="s">
+      <c r="A213" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C213" s="17"/>
+      <c r="C213" s="15">
+        <v>1</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A214" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B214" s="16" t="s">
+      <c r="A214" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B214" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C214" s="17">
-        <v>1</v>
-      </c>
+      <c r="C214" s="15"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A215" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B215" s="16" t="s">
+      <c r="A215" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B215" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C215" s="17">
-        <v>1</v>
-      </c>
+      <c r="C215" s="15"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A216" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B216" s="16" t="s">
+      <c r="A216" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B216" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C216" s="17"/>
+      <c r="C216" s="15"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A217" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B217" s="16" t="s">
+      <c r="A217" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B217" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C217" s="17"/>
+      <c r="C217" s="15"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A218" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B218" s="16" t="s">
+      <c r="A218" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B218" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C218" s="17"/>
+      <c r="C218" s="15">
+        <v>1</v>
+      </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A219" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B219" s="16" t="s">
+      <c r="A219" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B219" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C219" s="17"/>
+      <c r="C219" s="15">
+        <v>2</v>
+      </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A220" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B220" s="16" t="s">
+      <c r="A220" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B220" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C220" s="17">
-        <v>1</v>
-      </c>
+      <c r="C220" s="15"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A221" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B221" s="16" t="s">
+      <c r="A221" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C221" s="17">
-        <v>2</v>
-      </c>
+      <c r="C221" s="15"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A222" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B222" s="16" t="s">
+      <c r="A222" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C222" s="17"/>
+      <c r="C222" s="15"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A223" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B223" s="16" t="s">
+      <c r="A223" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B223" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C223" s="17"/>
+      <c r="C223" s="15"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A224" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C224" s="17"/>
+      <c r="A224" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C224" s="15">
+        <v>8</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A225" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B225" s="16" t="s">
+      <c r="A225" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B225" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C225" s="17"/>
+      <c r="C225" s="15">
+        <v>38</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A226" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B226" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C226" s="17">
-        <v>8</v>
+      <c r="A226" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C226" s="15">
+        <v>2</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A227" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B227" s="16" t="s">
+      <c r="A227" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B227" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C227" s="17">
-        <v>38</v>
+      <c r="C227" s="15">
+        <v>3</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A228" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B228" s="16" t="s">
+      <c r="A228" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C228" s="17">
-        <v>2</v>
+      <c r="C228" s="15">
+        <v>7</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A229" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B229" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C229" s="17">
-        <v>3</v>
+      <c r="A229" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C229" s="15">
+        <v>1</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A230" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B230" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C230" s="17">
-        <v>7</v>
+      <c r="A230" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230" s="15">
+        <v>3</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A231" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B231" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C231" s="17">
-        <v>1</v>
+      <c r="A231" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C231" s="15">
+        <v>54</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A232" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B232" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C232" s="17">
-        <v>3</v>
+      <c r="A232" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C232" s="15">
+        <v>0</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A233" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B233" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C233" s="17">
-        <v>54</v>
+      <c r="A233" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C233" s="15">
+        <v>15</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A234" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B234" s="16" t="s">
+      <c r="A234" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B234" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C234" s="17">
+      <c r="C234" s="15">
         <v>0</v>
       </c>
       <c r="D234" s="1"/>
@@ -4327,27 +4319,27 @@
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A235" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B235" s="16" t="s">
+      <c r="A235" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B235" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C235" s="17">
-        <v>15</v>
+      <c r="C235" s="15">
+        <v>1</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A236" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B236" s="16" t="s">
+      <c r="A236" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C236" s="17">
+      <c r="C236" s="15">
         <v>0</v>
       </c>
       <c r="D236" s="1"/>
@@ -4355,41 +4347,41 @@
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A237" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B237" s="16" t="s">
+      <c r="A237" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B237" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C237" s="17">
-        <v>1</v>
+      <c r="C237" s="15">
+        <v>0</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A238" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B238" s="16" t="s">
+      <c r="A238" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C238" s="17">
-        <v>0</v>
+      <c r="C238" s="15">
+        <v>21</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A239" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B239" s="16" t="s">
+      <c r="A239" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B239" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C239" s="17">
+      <c r="C239" s="15">
         <v>0</v>
       </c>
       <c r="D239" s="1"/>
@@ -4397,151 +4389,151 @@
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A240" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B240" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C240" s="17">
-        <v>21</v>
+      <c r="A240" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C240" s="15">
+        <v>16</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
     <row r="241" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A241" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C241" s="17">
-        <v>0</v>
+      <c r="A241" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C241" s="15">
+        <v>54</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A242" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C242" s="17">
-        <v>16</v>
-      </c>
+      <c r="A242" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C242" s="15"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
     <row r="243" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A243" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C243" s="17">
-        <v>54</v>
+      <c r="A243" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C243" s="15">
+        <v>5</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
     <row r="244" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A244" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B244" s="16" t="s">
+      <c r="A244" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B244" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C244" s="17"/>
+      <c r="C244" s="15">
+        <v>18</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A245" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C245" s="17">
-        <v>5</v>
+      <c r="A245" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" s="15">
+        <v>10</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
     <row r="246" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A246" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C246" s="17">
-        <v>18</v>
+      <c r="A246" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C246" s="15">
+        <v>61</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
     <row r="247" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A247" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C247" s="17">
-        <v>10</v>
+      <c r="A247" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C247" s="15">
+        <v>1</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
     <row r="248" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A248" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C248" s="17">
-        <v>61</v>
+      <c r="A248" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C248" s="15">
+        <v>3</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A249" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B249" s="16" t="s">
+      <c r="A249" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B249" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C249" s="17">
-        <v>1</v>
+      <c r="C249" s="15">
+        <v>17</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A250" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B250" s="16" t="s">
+      <c r="A250" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C250" s="17">
+      <c r="C250" s="15">
         <v>3</v>
       </c>
       <c r="D250" s="1"/>
@@ -4549,111 +4541,111 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A251" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B251" s="16" t="s">
+      <c r="A251" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B251" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C251" s="17">
-        <v>17</v>
+      <c r="C251" s="15">
+        <v>7</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
     </row>
     <row r="252" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A252" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B252" s="16" t="s">
+      <c r="A252" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B252" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C252" s="17">
-        <v>3</v>
+      <c r="C252" s="15">
+        <v>4</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A253" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B253" s="16" t="s">
+      <c r="A253" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B253" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C253" s="17">
-        <v>7</v>
+      <c r="C253" s="15">
+        <v>8</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
     <row r="254" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A254" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B254" s="16" t="s">
+      <c r="A254" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B254" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C254" s="17">
-        <v>4</v>
+      <c r="C254" s="15">
+        <v>1</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A255" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B255" s="16" t="s">
+      <c r="A255" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B255" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C255" s="17">
-        <v>8</v>
+      <c r="C255" s="15">
+        <v>0</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A256" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B256" s="16" t="s">
+      <c r="A256" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B256" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C256" s="17">
-        <v>1</v>
+      <c r="C256" s="15">
+        <v>0</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
     </row>
     <row r="257" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A257" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B257" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C257" s="17">
-        <v>0</v>
+      <c r="A257" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C257" s="15">
+        <v>6</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
     </row>
     <row r="258" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A258" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C258" s="17">
+      <c r="A258" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C258" s="15">
         <v>0</v>
       </c>
       <c r="D258" s="1"/>
@@ -4661,55 +4653,55 @@
       <c r="F258" s="1"/>
     </row>
     <row r="259" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A259" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B259" s="16" t="s">
+      <c r="A259" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B259" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C259" s="17">
-        <v>6</v>
+      <c r="C259" s="15">
+        <v>1</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A260" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B260" s="16" t="s">
+      <c r="A260" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B260" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C260" s="17">
-        <v>0</v>
+      <c r="C260" s="15">
+        <v>2</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
     </row>
     <row r="261" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A261" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B261" s="16" t="s">
+      <c r="A261" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B261" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C261" s="17">
-        <v>1</v>
+      <c r="C261" s="15">
+        <v>2</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A262" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B262" s="16" t="s">
+      <c r="A262" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B262" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C262" s="17">
+      <c r="C262" s="15">
         <v>2</v>
       </c>
       <c r="D262" s="1"/>
@@ -4717,139 +4709,139 @@
       <c r="F262" s="1"/>
     </row>
     <row r="263" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A263" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B263" s="16" t="s">
+      <c r="A263" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B263" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C263" s="17">
-        <v>2</v>
+      <c r="C263" s="15">
+        <v>3</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
     <row r="264" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A264" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B264" s="16" t="s">
+      <c r="A264" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B264" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C264" s="17">
-        <v>2</v>
+      <c r="C264" s="15">
+        <v>0</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
     <row r="265" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A265" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B265" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C265" s="17">
-        <v>3</v>
+      <c r="A265" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C265" s="15">
+        <v>10</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A266" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B266" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C266" s="17">
-        <v>0</v>
+      <c r="A266" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C266" s="15">
+        <v>4</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A267" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B267" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C267" s="17">
-        <v>10</v>
+      <c r="A267" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" s="15">
+        <v>17</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
     <row r="268" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A268" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B268" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C268" s="17">
-        <v>4</v>
+      <c r="A268" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C268" s="15">
+        <v>26</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
     <row r="269" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A269" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B269" s="16" t="s">
+      <c r="A269" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B269" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C269" s="17">
-        <v>17</v>
+      <c r="C269" s="15">
+        <v>1</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
     </row>
     <row r="270" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A270" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C270" s="17">
-        <v>26</v>
+      <c r="A270" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C270" s="15">
+        <v>0</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A271" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C271" s="17">
-        <v>1</v>
+      <c r="A271" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C271" s="15">
+        <v>0</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A272" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B272" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C272" s="17">
+      <c r="A272" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C272" s="15">
         <v>0</v>
       </c>
       <c r="D272" s="1"/>
@@ -4857,13 +4849,13 @@
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A273" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C273" s="17">
+      <c r="A273" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" s="15">
         <v>0</v>
       </c>
       <c r="D273" s="1"/>
@@ -4871,13 +4863,13 @@
       <c r="F273" s="1"/>
     </row>
     <row r="274" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A274" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B274" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C274" s="17">
+      <c r="A274" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C274" s="15">
         <v>0</v>
       </c>
       <c r="D274" s="1"/>
@@ -4885,13 +4877,13 @@
       <c r="F274" s="1"/>
     </row>
     <row r="275" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A275" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C275" s="17">
+      <c r="A275" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C275" s="15">
         <v>0</v>
       </c>
       <c r="D275" s="1"/>
@@ -4899,429 +4891,429 @@
       <c r="F275" s="1"/>
     </row>
     <row r="276" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A276" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C276" s="17">
-        <v>0</v>
-      </c>
+      <c r="A276" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C276" s="15"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
     <row r="277" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A277" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B277" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C277" s="17">
-        <v>0</v>
+      <c r="A277" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C277" s="15">
+        <v>31</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
     </row>
     <row r="278" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A278" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B278" s="16" t="s">
+      <c r="A278" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B278" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C278" s="17"/>
+      <c r="C278" s="15">
+        <v>1</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
     </row>
     <row r="279" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A279" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B279" s="16" t="s">
+      <c r="A279" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B279" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C279" s="17">
-        <v>31</v>
-      </c>
+      <c r="C279" s="15"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
     </row>
     <row r="280" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A280" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B280" s="16" t="s">
+      <c r="A280" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B280" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C280" s="17">
-        <v>1</v>
-      </c>
+      <c r="C280" s="15"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
     </row>
     <row r="281" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A281" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B281" s="16" t="s">
+      <c r="A281" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B281" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C281" s="17"/>
+      <c r="C281" s="15">
+        <v>1</v>
+      </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
     </row>
     <row r="282" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A282" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B282" s="16" t="s">
+      <c r="A282" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B282" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C282" s="17"/>
+      <c r="C282" s="15"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
     <row r="283" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A283" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B283" s="16" t="s">
+      <c r="A283" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B283" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C283" s="17">
-        <v>1</v>
-      </c>
+      <c r="C283" s="15"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
     </row>
     <row r="284" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A284" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B284" s="16" t="s">
+      <c r="A284" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B284" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C284" s="17"/>
+      <c r="C284" s="15">
+        <v>3</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A285" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B285" s="16" t="s">
+      <c r="A285" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B285" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C285" s="17"/>
+      <c r="C285" s="15"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
     </row>
     <row r="286" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A286" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B286" s="16" t="s">
+      <c r="A286" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B286" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C286" s="17">
-        <v>3</v>
+      <c r="C286" s="15">
+        <v>1</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
     <row r="287" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A287" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B287" s="16" t="s">
+      <c r="A287" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B287" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C287" s="17"/>
+      <c r="C287" s="15"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
     <row r="288" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A288" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B288" s="16" t="s">
+      <c r="A288" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C288" s="17">
-        <v>1</v>
-      </c>
+      <c r="C288" s="15"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
     </row>
     <row r="289" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A289" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B289" s="16" t="s">
+      <c r="A289" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B289" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C289" s="17"/>
+      <c r="C289" s="15"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
     </row>
     <row r="290" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A290" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B290" s="16" t="s">
+      <c r="A290" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B290" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C290" s="17"/>
+      <c r="C290" s="15"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
     </row>
     <row r="291" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A291" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B291" s="16" t="s">
+      <c r="A291" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C291" s="17"/>
+      <c r="C291" s="15"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
     </row>
     <row r="292" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A292" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B292" s="16" t="s">
+      <c r="A292" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C292" s="17"/>
+      <c r="C292" s="15"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
     </row>
     <row r="293" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A293" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B293" s="16" t="s">
+      <c r="A293" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C293" s="17"/>
+      <c r="C293" s="15"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
     </row>
     <row r="294" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A294" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B294" s="16" t="s">
+      <c r="A294" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B294" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C294" s="17"/>
+      <c r="C294" s="15"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
     </row>
     <row r="295" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A295" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B295" s="16" t="s">
+      <c r="A295" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B295" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C295" s="17"/>
+      <c r="C295" s="15"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A296" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B296" s="16" t="s">
+      <c r="A296" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B296" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C296" s="17"/>
+      <c r="C296" s="15"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
     </row>
     <row r="297" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A297" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B297" s="16" t="s">
+      <c r="A297" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B297" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C297" s="17"/>
+      <c r="C297" s="15"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A298" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B298" s="16" t="s">
+      <c r="A298" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B298" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C298" s="17"/>
+      <c r="C298" s="15"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
     </row>
     <row r="299" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A299" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B299" s="16" t="s">
+      <c r="A299" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B299" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C299" s="17"/>
+      <c r="C299" s="15">
+        <v>2</v>
+      </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
     </row>
     <row r="300" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A300" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B300" s="16" t="s">
+      <c r="A300" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B300" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C300" s="17"/>
+      <c r="C300" s="15"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
     </row>
     <row r="301" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A301" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B301" s="16" t="s">
+      <c r="A301" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B301" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C301" s="17">
-        <v>2</v>
-      </c>
+      <c r="C301" s="15"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
     </row>
     <row r="302" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A302" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B302" s="16" t="s">
+      <c r="A302" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B302" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C302" s="17"/>
+      <c r="C302" s="15"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
     </row>
     <row r="303" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A303" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B303" s="16" t="s">
+      <c r="A303" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B303" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C303" s="17"/>
+      <c r="C303" s="15"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
     </row>
     <row r="304" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A304" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B304" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C304" s="17"/>
+      <c r="A304" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C304" s="15"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A305" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B305" s="16" t="s">
+      <c r="A305" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B305" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C305" s="17"/>
+      <c r="C305" s="15">
+        <v>32</v>
+      </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
     </row>
     <row r="306" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A306" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B306" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C306" s="17"/>
+      <c r="A306" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C306" s="15">
+        <v>2</v>
+      </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A307" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B307" s="16" t="s">
+      <c r="A307" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B307" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C307" s="17">
-        <v>32</v>
+      <c r="C307" s="15">
+        <v>1</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
     <row r="308" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A308" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B308" s="16" t="s">
+      <c r="A308" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B308" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C308" s="17">
-        <v>2</v>
+      <c r="C308" s="15">
+        <v>1</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
     <row r="309" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A309" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B309" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C309" s="17">
+      <c r="A309" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C309" s="15">
         <v>1</v>
       </c>
       <c r="D309" s="1"/>
@@ -5329,67 +5321,67 @@
       <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A310" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B310" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C310" s="17">
-        <v>1</v>
-      </c>
+      <c r="A310" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B310" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C310" s="15"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
     <row r="311" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A311" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B311" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C311" s="17">
-        <v>1</v>
+      <c r="A311" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C311" s="15">
+        <v>7</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
     <row r="312" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A312" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B312" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C312" s="17"/>
+      <c r="A312" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C312" s="15">
+        <v>0</v>
+      </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
     <row r="313" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A313" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B313" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C313" s="17">
-        <v>7</v>
+      <c r="A313" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C313" s="15">
+        <v>13</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
     <row r="314" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A314" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B314" s="16" t="s">
+      <c r="A314" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B314" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C314" s="17">
+      <c r="C314" s="15">
         <v>0</v>
       </c>
       <c r="D314" s="1"/>
@@ -5397,27 +5389,27 @@
       <c r="F314" s="1"/>
     </row>
     <row r="315" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A315" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B315" s="16" t="s">
+      <c r="A315" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B315" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C315" s="17">
-        <v>13</v>
+      <c r="C315" s="15">
+        <v>0</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
     <row r="316" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A316" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B316" s="16" t="s">
+      <c r="A316" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B316" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C316" s="17">
+      <c r="C316" s="15">
         <v>0</v>
       </c>
       <c r="D316" s="1"/>
@@ -5425,13 +5417,13 @@
       <c r="F316" s="1"/>
     </row>
     <row r="317" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A317" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B317" s="16" t="s">
+      <c r="A317" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B317" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C317" s="17">
+      <c r="C317" s="15">
         <v>0</v>
       </c>
       <c r="D317" s="1"/>
@@ -5439,27 +5431,27 @@
       <c r="F317" s="1"/>
     </row>
     <row r="318" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A318" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B318" s="16" t="s">
+      <c r="A318" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B318" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C318" s="17">
-        <v>0</v>
+      <c r="C318" s="15">
+        <v>13</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A319" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B319" s="16" t="s">
+      <c r="A319" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B319" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C319" s="17">
+      <c r="C319" s="15">
         <v>0</v>
       </c>
       <c r="D319" s="1"/>
@@ -5467,153 +5459,141 @@
       <c r="F319" s="1"/>
     </row>
     <row r="320" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A320" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B320" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C320" s="17">
-        <v>13</v>
+      <c r="A320" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B320" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C320" s="15">
+        <v>12</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
     <row r="321" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A321" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B321" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C321" s="17">
-        <v>0</v>
+      <c r="A321" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C321" s="15">
+        <v>16</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
     <row r="322" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A322" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B322" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C322" s="17">
-        <v>12</v>
-      </c>
+      <c r="A322" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C322" s="15"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
     <row r="323" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A323" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B323" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C323" s="17">
-        <v>16</v>
+      <c r="A323" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B323" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C323" s="15">
+        <v>4</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
     <row r="324" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A324" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B324" s="16" t="s">
+      <c r="A324" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B324" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C324" s="17"/>
+      <c r="C324" s="15">
+        <v>5</v>
+      </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
     <row r="325" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A325" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B325" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C325" s="17">
-        <v>4</v>
+      <c r="A325" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C325" s="15">
+        <v>10</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
     <row r="326" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A326" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B326" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C326" s="17">
-        <v>5</v>
+      <c r="A326" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C326" s="15">
+        <v>12</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A327" s="15" t="s">
+    <row r="327" spans="1:6">
+      <c r="A327" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B327" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B327" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C327" s="17">
-        <v>10</v>
+      <c r="C327" s="1">
+        <v>35</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A328" s="15" t="s">
-        <v>197</v>
+    <row r="328" spans="1:6">
+      <c r="A328" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C328" s="17">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="C328" s="1">
+        <v>26</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C329" s="1">
-        <v>35</v>
-      </c>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B330" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C330" s="1">
-        <v>26</v>
-      </c>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -5706,22 +5686,6 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
